--- a/data/All_confirmed_names.xlsx
+++ b/data/All_confirmed_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\fish_biodiversity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C1F99B-28FD-4DA9-905A-1F8BB56E8323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970A1B42-5BED-43B7-84D9-75E4DDE49CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AF90FA2D-287D-4558-BBD3-CCD912B94FA4}"/>
+    <workbookView xWindow="-50280" yWindow="0" windowWidth="21600" windowHeight="11460" xr2:uid="{AF90FA2D-287D-4558-BBD3-CCD912B94FA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5454" uniqueCount="1964">
   <si>
     <t>Arothron</t>
   </si>
@@ -5918,6 +5918,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ask Kent. Valid spp name. Likely confused Choeroichthys with Corythoichthys. Choeroichthys scultpus is in the Philippines, but not in the dataset. Corythoichthys is a valid genus name. Corythoichthys schultzi is present in this dataset. </t>
+  </si>
+  <si>
+    <t>Trimma species 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allen &amp; Erdmann (2012) pg 946. Trimma species 2 (Striped drawfgoby). Undescribed species sometimes referred to as RW sp. 70.  </t>
+  </si>
+  <si>
+    <t>Opistognathus species 6</t>
+  </si>
+  <si>
+    <t>Allen &amp; Erdmann (2012) pg 356. Opistognathus species 6 (Chinstrap Jawfish). Undescribed species.</t>
   </si>
 </sst>
 </file>
@@ -6296,8 +6308,8 @@
   </sheetPr>
   <dimension ref="A1:E1717"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1076" sqref="B1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -24807,13 +24819,13 @@
         <v>1814</v>
       </c>
       <c r="C1627" t="s">
-        <v>113</v>
+        <v>1960</v>
       </c>
       <c r="D1627" t="s">
-        <v>484</v>
+        <v>356</v>
       </c>
       <c r="E1627" t="s">
-        <v>1764</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -25188,13 +25200,13 @@
         <v>1843</v>
       </c>
       <c r="C1654" t="s">
-        <v>1550</v>
+        <v>1962</v>
       </c>
       <c r="D1654" t="s">
-        <v>484</v>
+        <v>356</v>
       </c>
       <c r="E1654" t="s">
-        <v>1764</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
